--- a/biology/Médecine/CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations/CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations.xlsx
+++ b/biology/Médecine/CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations/CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CE_relative_%C3%A0_la_r%C3%A9duction_des_%C3%A9missions_de_compos%C3%A9s_organiques_volatils_dues_%C3%A0_l%27utilisation_de_solvants_organiques_dans_certaines_activit%C3%A9s_et_installations</t>
+          <t>CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La directive 1999/13/CE relative à la réduction des émissions de composés organiques volatils dues à l’utilisation de solvants organiques dans certaines activités et installations de l'Union européenne, promulguée en 1999, vise à réduire le risque sanitaire présenté par les composés organiques volatils (COV), c'est-à-dire les composés organiques qui se trouvent facilement à l'état gazeux dans l'atmosphère.
-Parmi ceux-ci, le perchloroéthylène, substance inscrite sur la liste des cancérogènes du groupe 2A du CIRC et qui est massivement utilisé dans le nettoyage à sec. La directive oblige donc les États de l'UE à engager une politique de réduction des risques et de contrôle des émissions de perchloroéthylène[1].
+Parmi ceux-ci, le perchloroéthylène, substance inscrite sur la liste des cancérogènes du groupe 2A du CIRC et qui est massivement utilisé dans le nettoyage à sec. La directive oblige donc les États de l'UE à engager une politique de réduction des risques et de contrôle des émissions de perchloroéthylène.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CE_relative_%C3%A0_la_r%C3%A9duction_des_%C3%A9missions_de_compos%C3%A9s_organiques_volatils_dues_%C3%A0_l%27utilisation_de_solvants_organiques_dans_certaines_activit%C3%A9s_et_installations</t>
+          <t>CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Définition juridique des COV</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’article 2 de la directive 1999/13/CE définit les COV comme suit :
-« tout composé organique ayant une pression de vapeur de 0,01 kPa ou plus à une température de 293,15 K[2] ou ayant une volatilité correspondante dans les conditions d'utilisation particulières. […] »
+« tout composé organique ayant une pression de vapeur de 0,01 kPa ou plus à une température de 293,15 K ou ayant une volatilité correspondante dans les conditions d'utilisation particulières. […] »
 — paragraphe 17
 et précise que le terme composé organique désigne :
 « tout composé contenant au moins l'élément carbone et un ou plusieurs des éléments suivants : hydrogène, halogènes, oxygène, soufre, phosphore, silicium ou azote, à l'exception des oxydes de carbone et des carbonates et bicarbonates inorganiques ; »
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CE_relative_%C3%A0_la_r%C3%A9duction_des_%C3%A9missions_de_compos%C3%A9s_organiques_volatils_dues_%C3%A0_l%27utilisation_de_solvants_organiques_dans_certaines_activit%C3%A9s_et_installations</t>
+          <t>CE_relative_à_la_réduction_des_émissions_de_composés_organiques_volatils_dues_à_l'utilisation_de_solvants_organiques_dans_certaines_activités_et_installations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Implémentation en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La directive 1999/13/CE est à l'origine du décret n° 2006-623 du 29 mai 2006 relatif à la réduction des émissions de composés organiques volatils dues à l'utilisation de solvants organiques dans certains vernis et peintures et dans les produits de retouche de véhicules [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La directive 1999/13/CE est à l'origine du décret n° 2006-623 du 29 mai 2006 relatif à la réduction des émissions de composés organiques volatils dues à l'utilisation de solvants organiques dans certains vernis et peintures et dans les produits de retouche de véhicules .
 </t>
         </is>
       </c>
